--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BD/20/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BD/20/seed5/result_data_RandomForest.xlsx
@@ -488,7 +488,7 @@
         <v>-9.76</v>
       </c>
       <c r="D3" t="n">
-        <v>-5.896599999999999</v>
+        <v>-6.049999999999998</v>
       </c>
       <c r="E3" t="n">
         <v>13.95</v>
@@ -505,7 +505,7 @@
         <v>-11.3</v>
       </c>
       <c r="D4" t="n">
-        <v>-7.511299999999999</v>
+        <v>-7.538899999999999</v>
       </c>
       <c r="E4" t="n">
         <v>10.77</v>
@@ -556,7 +556,7 @@
         <v>-10.59</v>
       </c>
       <c r="D7" t="n">
-        <v>-8.20619999999999</v>
+        <v>-8.227099999999993</v>
       </c>
       <c r="E7" t="n">
         <v>14.77</v>
@@ -573,7 +573,7 @@
         <v>-11.02</v>
       </c>
       <c r="D8" t="n">
-        <v>-8.484399999999994</v>
+        <v>-8.562499999999996</v>
       </c>
       <c r="E8" t="n">
         <v>12.94</v>
@@ -618,7 +618,7 @@
         <v>-22.23</v>
       </c>
       <c r="B11" t="n">
-        <v>5.4115</v>
+        <v>5.399700000000001</v>
       </c>
       <c r="C11" t="n">
         <v>-13.87</v>
@@ -635,13 +635,13 @@
         <v>-24</v>
       </c>
       <c r="B12" t="n">
-        <v>5.081899999999997</v>
+        <v>5.325799999999999</v>
       </c>
       <c r="C12" t="n">
         <v>-15.79</v>
       </c>
       <c r="D12" t="n">
-        <v>-8.0001</v>
+        <v>-8.109399999999999</v>
       </c>
       <c r="E12" t="n">
         <v>13.01</v>
@@ -675,7 +675,7 @@
         <v>-11.89</v>
       </c>
       <c r="D14" t="n">
-        <v>-8.606899999999998</v>
+        <v>-8.593999999999999</v>
       </c>
       <c r="E14" t="n">
         <v>12.97</v>
@@ -686,7 +686,7 @@
         <v>-21.67</v>
       </c>
       <c r="B15" t="n">
-        <v>5.020200000000004</v>
+        <v>5.020000000000002</v>
       </c>
       <c r="C15" t="n">
         <v>-10.67</v>
@@ -811,7 +811,7 @@
         <v>-10.65</v>
       </c>
       <c r="D22" t="n">
-        <v>-7.544899999999997</v>
+        <v>-7.466899999999996</v>
       </c>
       <c r="E22" t="n">
         <v>12.2</v>
